--- a/final_data_pipeline/output/322130_kraft_elec_nowhp.xlsx
+++ b/final_data_pipeline/output/322130_kraft_elec_nowhp.xlsx
@@ -866,7 +866,7 @@
         <v>68</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J6">
         <v>8000</v>
@@ -881,10 +881,10 @@
         <v>3705549.635407182</v>
       </c>
       <c r="N6">
-        <v>1.800714285714286</v>
+        <v>1.847705673092716</v>
       </c>
       <c r="O6">
-        <v>1.963947368421052</v>
+        <v>2.020749367497032</v>
       </c>
       <c r="P6">
         <v>463.1937044258977</v>
@@ -919,7 +919,7 @@
         <v>69</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J7">
         <v>8000</v>
@@ -1066,7 +1066,7 @@
         <v>68</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -1081,10 +1081,10 @@
         <v>2408923.622693332</v>
       </c>
       <c r="N10">
-        <v>1.800714285714286</v>
+        <v>1.92665172779809</v>
       </c>
       <c r="O10">
-        <v>1.963947368421052</v>
+        <v>2.116885095206829</v>
       </c>
       <c r="P10">
         <v>301.1154528366666</v>
@@ -1119,7 +1119,7 @@
         <v>69</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="J11">
         <v>8000</v>
@@ -1466,7 +1466,7 @@
         <v>68</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J18">
         <v>8000</v>
@@ -1481,10 +1481,10 @@
         <v>1367607.263553267</v>
       </c>
       <c r="N18">
-        <v>1.800714285714286</v>
+        <v>1.847705673092716</v>
       </c>
       <c r="O18">
-        <v>1.963947368421052</v>
+        <v>2.020749367497032</v>
       </c>
       <c r="P18">
         <v>170.9509079441584</v>
@@ -1519,7 +1519,7 @@
         <v>69</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J19">
         <v>8000</v>
@@ -2013,7 +2013,7 @@
         <v>68</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J29">
         <v>8000</v>
@@ -2028,10 +2028,10 @@
         <v>1968282.253141</v>
       </c>
       <c r="N29">
-        <v>1.800714285714286</v>
+        <v>1.618523362263702</v>
       </c>
       <c r="O29">
-        <v>1.963947368421052</v>
+        <v>1.746638928617865</v>
       </c>
       <c r="P29">
         <v>246.035281642625</v>
@@ -2066,7 +2066,7 @@
         <v>69</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J30">
         <v>8000</v>
@@ -2113,7 +2113,7 @@
         <v>68</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J31">
         <v>8000</v>
@@ -2128,10 +2128,10 @@
         <v>2568475.425731204</v>
       </c>
       <c r="N31">
-        <v>1.800714285714286</v>
+        <v>1.865062221714807</v>
       </c>
       <c r="O31">
-        <v>1.963947368421052</v>
+        <v>2.041808739708676</v>
       </c>
       <c r="P31">
         <v>321.0594282164005</v>
@@ -2166,7 +2166,7 @@
         <v>69</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J32">
         <v>8000</v>
@@ -2313,7 +2313,7 @@
         <v>68</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J35">
         <v>8000</v>
@@ -2328,10 +2328,10 @@
         <v>366056.4287663572</v>
       </c>
       <c r="N35">
-        <v>1.800714285714286</v>
+        <v>1.853964204859962</v>
       </c>
       <c r="O35">
-        <v>1.963947368421052</v>
+        <v>2.02833814451736</v>
       </c>
       <c r="P35">
         <v>45.75705359579466</v>
@@ -2366,7 +2366,7 @@
         <v>69</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J36">
         <v>8000</v>
@@ -2413,7 +2413,7 @@
         <v>68</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J37">
         <v>8000</v>
@@ -2428,10 +2428,10 @@
         <v>1304237.925157264</v>
       </c>
       <c r="N37">
-        <v>1.800714285714286</v>
+        <v>1.618523362263702</v>
       </c>
       <c r="O37">
-        <v>1.963947368421052</v>
+        <v>1.746638928617865</v>
       </c>
       <c r="P37">
         <v>163.029740644658</v>
@@ -2466,7 +2466,7 @@
         <v>69</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J38">
         <v>8000</v>
@@ -2613,7 +2613,7 @@
         <v>68</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J41">
         <v>8000</v>
@@ -2628,10 +2628,10 @@
         <v>663989.1429695982</v>
       </c>
       <c r="N41">
-        <v>1.800714285714286</v>
+        <v>1.853964204859962</v>
       </c>
       <c r="O41">
-        <v>1.963947368421052</v>
+        <v>2.02833814451736</v>
       </c>
       <c r="P41">
         <v>82.99864287119978</v>
@@ -2666,7 +2666,7 @@
         <v>69</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J42">
         <v>8000</v>
@@ -2813,7 +2813,7 @@
         <v>68</v>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="J45">
         <v>8000</v>
@@ -2828,10 +2828,10 @@
         <v>990913.3662736637</v>
       </c>
       <c r="N45">
-        <v>1.800714285714286</v>
+        <v>1.977063465169192</v>
       </c>
       <c r="O45">
-        <v>1.963947368421052</v>
+        <v>2.178742498783586</v>
       </c>
       <c r="P45">
         <v>123.864170784208</v>
@@ -2866,7 +2866,7 @@
         <v>69</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="J46">
         <v>8000</v>
@@ -2913,7 +2913,7 @@
         <v>68</v>
       </c>
       <c r="I47">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J47">
         <v>8000</v>
@@ -2928,10 +2928,10 @@
         <v>825086.8595204699</v>
       </c>
       <c r="N47">
-        <v>1.800714285714286</v>
+        <v>1.865062221714807</v>
       </c>
       <c r="O47">
-        <v>1.963947368421052</v>
+        <v>2.041808739708676</v>
       </c>
       <c r="P47">
         <v>103.1358574400587</v>
@@ -2966,7 +2966,7 @@
         <v>69</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J48">
         <v>8000</v>
@@ -3113,7 +3113,7 @@
         <v>68</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J51">
         <v>8000</v>
@@ -3128,10 +3128,10 @@
         <v>2224019.064200131</v>
       </c>
       <c r="N51">
-        <v>1.800714285714286</v>
+        <v>1.983015294974508</v>
       </c>
       <c r="O51">
-        <v>1.963947368421052</v>
+        <v>2.18606997558991</v>
       </c>
       <c r="P51">
         <v>278.0023830250165</v>
@@ -3166,7 +3166,7 @@
         <v>69</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J52">
         <v>8000</v>
@@ -3713,7 +3713,7 @@
         <v>68</v>
       </c>
       <c r="I63">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J63">
         <v>8000</v>
@@ -3728,10 +3728,10 @@
         <v>1247927.112960292</v>
       </c>
       <c r="N63">
-        <v>1.800714285714286</v>
+        <v>1.853964204859962</v>
       </c>
       <c r="O63">
-        <v>1.963947368421052</v>
+        <v>2.02833814451736</v>
       </c>
       <c r="P63">
         <v>155.9908891200366</v>
@@ -3766,7 +3766,7 @@
         <v>69</v>
       </c>
       <c r="I64">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J64">
         <v>8000</v>
@@ -3913,7 +3913,7 @@
         <v>68</v>
       </c>
       <c r="I67">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J67">
         <v>8000</v>
@@ -3928,10 +3928,10 @@
         <v>5059159.739807399</v>
       </c>
       <c r="N67">
-        <v>1.800714285714286</v>
+        <v>1.618523362263702</v>
       </c>
       <c r="O67">
-        <v>1.963947368421052</v>
+        <v>1.746638928617865</v>
       </c>
       <c r="P67">
         <v>632.3949674759249</v>
@@ -3966,7 +3966,7 @@
         <v>69</v>
       </c>
       <c r="I68">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J68">
         <v>8000</v>
@@ -4113,7 +4113,7 @@
         <v>68</v>
       </c>
       <c r="I71">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="J71">
         <v>8000</v>
@@ -4128,10 +4128,10 @@
         <v>6379146.334804997</v>
       </c>
       <c r="N71">
-        <v>1.800714285714286</v>
+        <v>1.726493341788205</v>
       </c>
       <c r="O71">
-        <v>1.963947368421052</v>
+        <v>1.874863921842289</v>
       </c>
       <c r="P71">
         <v>797.3932918506246</v>
@@ -4166,7 +4166,7 @@
         <v>69</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="J72">
         <v>8000</v>
